--- a/Descriptions GPT.xlsx
+++ b/Descriptions GPT.xlsx
@@ -25,7 +25,7 @@
     <t>When it comes to involvement Smith is excellent.When it comes to poaching Smith is excellent.</t>
   </si>
   <si>
-    <t>Based on the description you have provided, it seems that the player, Smith, is heavily involved in the game and also has good poaching skills. Therefore, we do not need to be worried about him not getting involved in the game. However, it's worth noting that the terms 'involvement' and 'poaching' can have different interpretations depending on the context of football, so having a broader context and more data about the player's performance would be necessary for a more accurate assessment.</t>
+    <t>Yes, the player seems to be quite involved in the game based on the given description. Being excellent in involvement and poaching skills is a desirable combination for a striker. It means that the player is active in both creating opportunities for themselves and for their team, as well as being able to finish those opportunities. So, as per the given description, there is no need to worry about the player's involvement in the game.</t>
   </si>
 </sst>
 </file>
